--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنيه اسماعيل حسن يحيي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omnia ismail hassan yehia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230022</x:t>
   </x:si>
   <x:si>
@@ -105,6 +114,15 @@
     <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
   </x:si>
   <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230207</x:t>
   </x:si>
   <x:si>
@@ -163,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Ayman Omran Abdallah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230262</x:t>
@@ -305,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -605,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -614,7 +641,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.070625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -792,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4285091782</x:v>
+        <x:v>45919.9079142361</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -824,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45907.4285091782</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -856,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.1332653935</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -888,7 +915,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.1438857292</x:v>
+        <x:v>45913.1332653935</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -920,7 +947,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.415049456</x:v>
+        <x:v>45913.1438857292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -952,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45909.415049456</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -984,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4262733449</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1016,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1048,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.4262733449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1076,9 +1103,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1101,16 +1130,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1133,16 +1162,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1174,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1206,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1238,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1255,6 +1282,102 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.4200846412</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.4520207523</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Rovana Emad Samir Micheal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى عمرو أحمد يوسف الشربيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
   </x:si>
   <x:si>
     <x:t>1220127</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -979,7 +988,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.415049456</x:v>
+        <x:v>45921.0065506597</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1011,7 +1020,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45909.415049456</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1043,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4262733449</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1107,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45907.4262733449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1139,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1167,9 +1176,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,16 +1203,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -1052,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45921.7823510069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
   </x:si>
   <x:si>
-    <x:t>4240027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230207</x:t>
   </x:si>
   <x:si>
@@ -181,6 +172,12 @@
   </x:si>
   <x:si>
     <x:t>Kareem Hussein Abdulrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس ناصر عدلى سلامة</x:t>
   </x:si>
   <x:si>
     <x:t>1230255</x:t>
@@ -650,7 +647,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.070625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1052,7 +1049,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.7823510069</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1081,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45907.4262733449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1113,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4262733449</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1145,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1176,11 +1173,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,14 +1198,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,11 +1235,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45922.4978819097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,13 +1260,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.6649017708</x:v>
@@ -1297,13 +1292,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45920.1202795139</x:v>
@@ -1329,13 +1324,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.4200846412</x:v>
@@ -1361,13 +1356,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.4520207523</x:v>
@@ -1393,13 +1388,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.665069213</x:v>

--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امنيه اسماعيل حسن يحيي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omnia ismail hassan yehia</x:t>
   </x:si>
   <x:si>
     <x:t>1230022</x:t>
@@ -338,7 +329,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -638,7 +629,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +816,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.9079142361</x:v>
+        <x:v>45907.4285091782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -857,7 +848,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4285091782</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -889,7 +880,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45913.1332653935</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -921,7 +912,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.1332653935</x:v>
+        <x:v>45913.1438857292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -953,7 +944,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.1438857292</x:v>
+        <x:v>45921.0065506597</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -985,7 +976,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45921.0065506597</x:v>
+        <x:v>45909.415049456</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1017,7 +1008,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.415049456</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1049,7 +1040,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45907.4262733449</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1081,7 +1072,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4262733449</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1113,7 +1104,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1141,11 +1132,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1168,14 +1157,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,11 +1194,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45922.4978819097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1230,14 +1219,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45922.4978819097</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1382,38 +1373,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35759.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35759.xlsx
@@ -186,7 +186,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230262</x:t>
